--- a/SchedulingData/dynamic15/pso/scheduling2_18.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>274.76</v>
+        <v>209.76</v>
       </c>
       <c r="D2" t="n">
-        <v>343.06</v>
+        <v>267.46</v>
       </c>
       <c r="E2" t="n">
-        <v>10.304</v>
+        <v>13.404</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>210.92</v>
+        <v>221.18</v>
       </c>
       <c r="D3" t="n">
-        <v>280.24</v>
+        <v>287.92</v>
       </c>
       <c r="E3" t="n">
-        <v>16.936</v>
+        <v>14.688</v>
       </c>
     </row>
     <row r="4">
@@ -504,554 +504,554 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>227.22</v>
+        <v>267.46</v>
       </c>
       <c r="D4" t="n">
-        <v>281.38</v>
+        <v>311.66</v>
       </c>
       <c r="E4" t="n">
-        <v>12.572</v>
+        <v>10.124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>213.74</v>
+        <v>228.78</v>
       </c>
       <c r="D5" t="n">
-        <v>272.06</v>
+        <v>275.12</v>
       </c>
       <c r="E5" t="n">
-        <v>13.784</v>
+        <v>13.168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>272.06</v>
+        <v>311.66</v>
       </c>
       <c r="D6" t="n">
-        <v>323.96</v>
+        <v>364.96</v>
       </c>
       <c r="E6" t="n">
-        <v>10.704</v>
+        <v>5.924</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>200.3</v>
+        <v>218.06</v>
       </c>
       <c r="D7" t="n">
-        <v>265.04</v>
+        <v>283.36</v>
       </c>
       <c r="E7" t="n">
-        <v>13.716</v>
+        <v>15.164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>323.96</v>
+        <v>203.18</v>
       </c>
       <c r="D8" t="n">
-        <v>377.46</v>
+        <v>278.16</v>
       </c>
       <c r="E8" t="n">
-        <v>7.984</v>
+        <v>13.764</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>377.46</v>
+        <v>278.16</v>
       </c>
       <c r="D9" t="n">
-        <v>442.44</v>
+        <v>332.22</v>
       </c>
       <c r="E9" t="n">
-        <v>3.616</v>
+        <v>10.488</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>229.96</v>
+        <v>235.84</v>
       </c>
       <c r="D10" t="n">
-        <v>280.92</v>
+        <v>274.34</v>
       </c>
       <c r="E10" t="n">
-        <v>13.588</v>
+        <v>12.196</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>442.44</v>
+        <v>275.12</v>
       </c>
       <c r="D11" t="n">
-        <v>497.34</v>
+        <v>324.84</v>
       </c>
       <c r="E11" t="n">
-        <v>0.756</v>
+        <v>10.836</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>497.34</v>
+        <v>324.84</v>
       </c>
       <c r="D12" t="n">
-        <v>582.53</v>
+        <v>378.54</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>7.096</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>343.06</v>
+        <v>287.92</v>
       </c>
       <c r="D13" t="n">
-        <v>395.94</v>
+        <v>330.4</v>
       </c>
       <c r="E13" t="n">
-        <v>7.136</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>280.92</v>
+        <v>330.4</v>
       </c>
       <c r="D14" t="n">
-        <v>364.94</v>
+        <v>381.46</v>
       </c>
       <c r="E14" t="n">
-        <v>9.795999999999999</v>
+        <v>8.103999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>265.04</v>
+        <v>283.36</v>
       </c>
       <c r="D15" t="n">
-        <v>322.62</v>
+        <v>350.34</v>
       </c>
       <c r="E15" t="n">
-        <v>10.068</v>
+        <v>11.076</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>395.94</v>
+        <v>332.22</v>
       </c>
       <c r="D16" t="n">
-        <v>435.74</v>
+        <v>380.1</v>
       </c>
       <c r="E16" t="n">
-        <v>4.776</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>280.24</v>
+        <v>364.96</v>
       </c>
       <c r="D17" t="n">
-        <v>341.04</v>
+        <v>442.48</v>
       </c>
       <c r="E17" t="n">
-        <v>12.976</v>
+        <v>2.752</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>435.74</v>
+        <v>442.48</v>
       </c>
       <c r="D18" t="n">
-        <v>490.06</v>
+        <v>503.98</v>
       </c>
       <c r="E18" t="n">
-        <v>2.444</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>322.62</v>
+        <v>503.98</v>
       </c>
       <c r="D19" t="n">
-        <v>393.58</v>
+        <v>577.2</v>
       </c>
       <c r="E19" t="n">
-        <v>7.092</v>
+        <v>26.828</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>582.53</v>
+        <v>381.46</v>
       </c>
       <c r="D20" t="n">
-        <v>648.01</v>
+        <v>455.56</v>
       </c>
       <c r="E20" t="n">
-        <v>26.112</v>
+        <v>2.824</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>341.04</v>
+        <v>274.34</v>
       </c>
       <c r="D21" t="n">
-        <v>405.94</v>
+        <v>339.34</v>
       </c>
       <c r="E21" t="n">
-        <v>8.116</v>
+        <v>8.816000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>281.38</v>
+        <v>455.56</v>
       </c>
       <c r="D22" t="n">
-        <v>322.5</v>
+        <v>536.51</v>
       </c>
       <c r="E22" t="n">
-        <v>9.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>364.94</v>
+        <v>536.51</v>
       </c>
       <c r="D23" t="n">
-        <v>404.14</v>
+        <v>597.91</v>
       </c>
       <c r="E23" t="n">
-        <v>6.516</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>393.58</v>
+        <v>339.34</v>
       </c>
       <c r="D24" t="n">
-        <v>462.18</v>
+        <v>395.54</v>
       </c>
       <c r="E24" t="n">
-        <v>1.872</v>
+        <v>3.836</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>462.18</v>
+        <v>350.34</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9400000000001</v>
+        <v>404.46</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>7.284</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>490.06</v>
+        <v>378.54</v>
       </c>
       <c r="D26" t="n">
-        <v>562.0700000000001</v>
+        <v>455.24</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>4.016</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>562.0700000000001</v>
+        <v>455.24</v>
       </c>
       <c r="D27" t="n">
-        <v>618.63</v>
+        <v>493.44</v>
       </c>
       <c r="E27" t="n">
-        <v>27.024</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>618.63</v>
+        <v>493.44</v>
       </c>
       <c r="D28" t="n">
-        <v>696.13</v>
+        <v>568.77</v>
       </c>
       <c r="E28" t="n">
-        <v>24.864</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>648.01</v>
+        <v>577.2</v>
       </c>
       <c r="D29" t="n">
-        <v>719.5700000000001</v>
+        <v>643.12</v>
       </c>
       <c r="E29" t="n">
-        <v>22.576</v>
+        <v>23.356</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>405.94</v>
+        <v>643.12</v>
       </c>
       <c r="D30" t="n">
-        <v>491.94</v>
+        <v>689.1799999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>3.136</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>322.5</v>
+        <v>597.91</v>
       </c>
       <c r="D31" t="n">
-        <v>409.5</v>
+        <v>642.37</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>23.224</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>409.5</v>
+        <v>380.1</v>
       </c>
       <c r="D32" t="n">
-        <v>482</v>
+        <v>482.1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.82</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>482</v>
+        <v>482.1</v>
       </c>
       <c r="D33" t="n">
-        <v>557.36</v>
+        <v>584.92</v>
       </c>
       <c r="E33" t="n">
         <v>30</v>
@@ -1070,40 +1070,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>557.36</v>
+        <v>395.54</v>
       </c>
       <c r="D34" t="n">
-        <v>630.16</v>
+        <v>435.06</v>
       </c>
       <c r="E34" t="n">
-        <v>26.36</v>
+        <v>1.504</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>719.5700000000001</v>
+        <v>435.06</v>
       </c>
       <c r="D35" t="n">
-        <v>772.39</v>
+        <v>513.95</v>
       </c>
       <c r="E35" t="n">
-        <v>19.404</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -1112,264 +1112,283 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>630.16</v>
+        <v>689.1799999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>702.42</v>
+        <v>753.96</v>
       </c>
       <c r="E36" t="n">
-        <v>23.224</v>
+        <v>16.532</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>404.14</v>
+        <v>642.37</v>
       </c>
       <c r="D37" t="n">
-        <v>470.32</v>
+        <v>698.01</v>
       </c>
       <c r="E37" t="n">
-        <v>2.988</v>
+        <v>20.26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>491.94</v>
+        <v>404.46</v>
       </c>
       <c r="D38" t="n">
-        <v>572.37</v>
+        <v>452.54</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>4.116</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>572.37</v>
+        <v>568.77</v>
       </c>
       <c r="D39" t="n">
-        <v>644.61</v>
+        <v>637.9299999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>26.416</v>
+        <v>25.744</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>772.39</v>
+        <v>698.01</v>
       </c>
       <c r="D40" t="n">
-        <v>826.75</v>
+        <v>739.75</v>
       </c>
       <c r="E40" t="n">
-        <v>16.588</v>
+        <v>17.716</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>644.61</v>
+        <v>584.92</v>
       </c>
       <c r="D41" t="n">
-        <v>676.45</v>
+        <v>640.02</v>
       </c>
       <c r="E41" t="n">
-        <v>23.872</v>
+        <v>27.64</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>470.32</v>
+        <v>640.02</v>
       </c>
       <c r="D42" t="n">
-        <v>551.14</v>
+        <v>677.8200000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>25.48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>551.14</v>
+        <v>677.8200000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>628.84</v>
+        <v>749.2</v>
       </c>
       <c r="E43" t="n">
-        <v>26.36</v>
+        <v>22.412</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>628.84</v>
+        <v>513.95</v>
       </c>
       <c r="D44" t="n">
-        <v>694.58</v>
+        <v>548.65</v>
       </c>
       <c r="E44" t="n">
-        <v>23.396</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>676.45</v>
+        <v>548.65</v>
       </c>
       <c r="D45" t="n">
-        <v>727.51</v>
+        <v>582.39</v>
       </c>
       <c r="E45" t="n">
-        <v>19.896</v>
+        <v>25.476</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>702.42</v>
+        <v>452.54</v>
       </c>
       <c r="D46" t="n">
-        <v>772.86</v>
+        <v>523.5</v>
       </c>
       <c r="E46" t="n">
-        <v>20.26</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>696.13</v>
+        <v>523.5</v>
       </c>
       <c r="D47" t="n">
-        <v>759.47</v>
+        <v>624.72</v>
       </c>
       <c r="E47" t="n">
-        <v>22.62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>727.51</v>
+        <v>637.9299999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>785.3099999999999</v>
+        <v>690.53</v>
       </c>
       <c r="E48" t="n">
-        <v>17.736</v>
+        <v>22.104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>694.58</v>
+        <v>582.39</v>
       </c>
       <c r="D49" t="n">
-        <v>759.78</v>
+        <v>644.89</v>
       </c>
       <c r="E49" t="n">
-        <v>19.976</v>
+        <v>23.316</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>pond53</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>624.72</v>
+      </c>
+      <c r="D50" t="n">
+        <v>680.02</v>
+      </c>
+      <c r="E50" t="n">
+        <v>27.14</v>
       </c>
     </row>
   </sheetData>
